--- a/excel/REPORTES.xlsx
+++ b/excel/REPORTES.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>ID Usuario</t>
   </si>
@@ -25,10 +25,7 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Cecilia</t>
-  </si>
-  <si>
-    <t>allan</t>
+    <t>abel</t>
   </si>
   <si>
     <t>Materia</t>
@@ -37,10 +34,13 @@
     <t>Calificacion</t>
   </si>
   <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>data base</t>
+    <t>Matematicas</t>
+  </si>
+  <si>
+    <t>Quimica</t>
+  </si>
+  <si>
+    <t>Lenguajes y aut</t>
   </si>
   <si>
     <t>Horario</t>
@@ -49,16 +49,22 @@
     <t>Salon</t>
   </si>
   <si>
-    <t>hj</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>9:00-10:00</t>
-  </si>
-  <si>
-    <t>F9</t>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>Sala F</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,18 +425,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -454,7 +452,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,15 +466,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>90</v>
@@ -484,10 +482,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>80</v>
+      <c r="B4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +517,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +542,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -547,13 +553,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
